--- a/biology/Biochimie/Catherine_Postic/Catherine_Postic.xlsx
+++ b/biology/Biochimie/Catherine_Postic/Catherine_Postic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catherine Postic est une chercheuse en physiologie métabolique française. Directrice de recherche au CNRS, elle reçoit la médaille d'argent du CNRS en 2015.
 </t>
@@ -511,10 +523,12 @@
           <t>Formation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un doctorat en 1993, elle complète sa formation à l'université Vanderbilt à Nashville dans le domaine de la biologie moléculaire en travaillant sur un locus de la glucokinase.
-En 2000, elle est nommée chargée de recherches au CNRS. En 2006, elle devient coresponsable de l'équipe « Signalisation de l'insuline et du glucose, et glucotoxicité » à l'Institut Cochin. En 2008, elle est promue directrice de recherche au CNRS[1].
+En 2000, elle est nommée chargée de recherches au CNRS. En 2006, elle devient coresponsable de l'équipe « Signalisation de l'insuline et du glucose, et glucotoxicité » à l'Institut Cochin. En 2008, elle est promue directrice de recherche au CNRS.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catherine Postic travaille sur les mécanismes moléculaires et cellulaires à l’origine de l’obésité et du diabète de type 2, dont le rôle du facteur de transcription ChREBP sur la stéatose hépatique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catherine Postic travaille sur les mécanismes moléculaires et cellulaires à l’origine de l’obésité et du diabète de type 2, dont le rôle du facteur de transcription ChREBP sur la stéatose hépatique.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2007 : prix Apollinaire Bouchardat[1].
-2007 : prix M.-F. Jayle de l'Académie des sciences[3].
-2015 : médaille d'argent du CNRS[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007 : prix Apollinaire Bouchardat.
+2007 : prix M.-F. Jayle de l'Académie des sciences.
+2015 : médaille d'argent du CNRS.</t>
         </is>
       </c>
     </row>
